--- a/data/trans_orig/P1406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C622B23-6B3B-4325-9840-4918E0B8039C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5B5898-E340-4108-B8ED-3EB069C1BA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E8404003-EF4B-45C1-87B5-978ACE1EB39A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{457275BD-BA7E-45BE-99B1-57890AB22777}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="169">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -94,10 +94,10 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
   </si>
   <si>
     <t>2,31%</t>
@@ -106,421 +106,409 @@
     <t>1,57%</t>
   </si>
   <si>
-    <t>3,42%</t>
+    <t>3,34%</t>
   </si>
   <si>
     <t>2,12%</t>
   </si>
   <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,41%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>99,53%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
   </si>
   <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>99,74%</t>
   </si>
   <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,72%</t>
   </si>
   <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
   </si>
   <si>
     <t>99,28%</t>
   </si>
   <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
     <t>99,48%</t>
   </si>
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>99,72%</t>
-  </si>
-  <si>
     <t>99,87%</t>
   </si>
   <si>
     <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -968,7 +956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCE6F8E-D0FD-4682-8650-C7D268ED23FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF33E1D-4C07-44D6-9C99-77A979B1982E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1427,7 +1415,7 @@
         <v>3465</v>
       </c>
       <c r="N10" s="7">
-        <v>3691130</v>
+        <v>3691129</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1478,7 +1466,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1573,10 +1561,10 @@
         <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1585,13 +1573,13 @@
         <v>7251</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,13 +1594,13 @@
         <v>478048</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -1621,13 +1609,13 @@
         <v>454512</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -1636,13 +1624,13 @@
         <v>932561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1746,7 +1734,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1749,13 @@
         <v>40572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -1776,10 +1764,10 @@
         <v>43119</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>85</v>
@@ -1833,22 +1821,22 @@
         <v>93</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>6416</v>
       </c>
       <c r="N18" s="7">
-        <v>6885927</v>
+        <v>6885928</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,7 +1878,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1904,7 +1892,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1923,7 +1911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDE36C1-A1EB-44F1-8CE7-AAE38EDE7E37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5300B1-E998-40A6-97A9-382EE9B1A0FD}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1940,7 +1928,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2053,7 +2041,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2068,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2098,13 +2086,13 @@
         <v>5813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2113,13 +2101,13 @@
         <v>16076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -2128,13 +2116,13 @@
         <v>21889</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2137,13 @@
         <v>748534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H6" s="7">
         <v>878</v>
@@ -2164,13 +2152,13 @@
         <v>978584</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>109</v>
+        <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M6" s="7">
         <v>1634</v>
@@ -2179,13 +2167,13 @@
         <v>1727118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2289,7 +2277,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2292,13 @@
         <v>8506</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2319,13 +2307,13 @@
         <v>16250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -2334,13 +2322,13 @@
         <v>24756</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,10 +2343,10 @@
         <v>2067879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>55</v>
@@ -2370,13 +2358,13 @@
         <v>1972050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="M10" s="7">
         <v>3838</v>
@@ -2385,13 +2373,13 @@
         <v>4039929</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,37 +2453,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2498,13 @@
         <v>930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2525,13 +2513,13 @@
         <v>1940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2540,13 +2528,13 @@
         <v>2870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2549,13 @@
         <v>545956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -2576,13 +2564,13 @@
         <v>547200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M14" s="7">
         <v>1024</v>
@@ -2591,13 +2579,13 @@
         <v>1093156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,7 +2689,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2704,13 @@
         <v>15249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -2731,13 +2719,13 @@
         <v>34266</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2746,13 +2734,13 @@
         <v>49515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>148</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,13 +2755,13 @@
         <v>3362369</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H18" s="7">
         <v>3295</v>
@@ -2782,13 +2770,13 @@
         <v>3497834</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M18" s="7">
         <v>6496</v>
@@ -2797,13 +2785,13 @@
         <v>6860203</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>154</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2859,7 +2847,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -2878,7 +2866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4D21BC4-2CF1-4710-B764-64CDA545CDEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69C57EB-3454-4C88-B793-D5EC9413C58D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2895,7 +2883,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3002,10 +2990,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3017,10 +3005,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3032,10 +3020,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3059,7 +3047,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3074,7 +3062,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3110,7 +3098,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3125,7 +3113,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3208,10 +3196,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3223,10 +3211,10 @@
         <v>2249520</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3238,10 +3226,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3280,7 +3268,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3295,7 +3283,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3331,7 +3319,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3346,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,10 +3402,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3429,10 +3417,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3444,10 +3432,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3471,7 +3459,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3486,7 +3474,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3501,7 +3489,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3510,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3537,7 +3525,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3552,7 +3540,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,10 +3608,10 @@
         <v>3376695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3635,10 +3623,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3650,10 +3638,10 @@
         <v>7176055</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3692,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3707,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3758,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,7 +3802,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF5B5898-E340-4108-B8ED-3EB069C1BA07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D88ECE2-AB3D-402F-918D-6F9BCF36E477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{457275BD-BA7E-45BE-99B1-57890AB22777}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{48D971D7-813B-4D28-AA28-7D2CB022571C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="177">
   <si>
     <t>Población con diagnóstico de úlcera de estómago en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -97,418 +97,442 @@
     <t>1,18%</t>
   </si>
   <si>
-    <t>2,91%</t>
+    <t>2,9%</t>
   </si>
   <si>
     <t>2,31%</t>
   </si>
   <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
   </si>
   <si>
     <t>98,43%</t>
   </si>
   <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
   </si>
   <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
   </si>
   <si>
     <t>99,51%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
+  </si>
+  <si>
+    <t>99,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,91%</t>
   </si>
   <si>
     <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>99,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de úlcera de estómago en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -956,7 +980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AF33E1D-4C07-44D6-9C99-77A979B1982E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A134B0-2892-420F-B362-8B3CADCE87EC}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1209,7 +1233,7 @@
         <v>2108</v>
       </c>
       <c r="N6" s="7">
-        <v>2262237</v>
+        <v>2262236</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1260,7 +1284,7 @@
         <v>2154</v>
       </c>
       <c r="N7" s="7">
-        <v>2311257</v>
+        <v>2311256</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1415,7 +1439,7 @@
         <v>3465</v>
       </c>
       <c r="N10" s="7">
-        <v>3691129</v>
+        <v>3691130</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1466,7 +1490,7 @@
         <v>3489</v>
       </c>
       <c r="N11" s="7">
-        <v>3718549</v>
+        <v>3718550</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>36</v>
@@ -1549,7 +1573,7 @@
         <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -1558,13 +1582,13 @@
         <v>4119</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>7</v>
@@ -1573,13 +1597,13 @@
         <v>7251</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1594,13 +1618,13 @@
         <v>478048</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -1609,13 +1633,13 @@
         <v>454512</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M14" s="7">
         <v>843</v>
@@ -1624,13 +1648,13 @@
         <v>932561</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,7 +1758,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1773,13 @@
         <v>40572</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -1764,13 +1788,13 @@
         <v>43119</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>77</v>
@@ -1779,13 +1803,13 @@
         <v>83691</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1800,13 +1824,13 @@
         <v>3379210</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H18" s="7">
         <v>3252</v>
@@ -1815,19 +1839,19 @@
         <v>3506718</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M18" s="7">
         <v>6416</v>
       </c>
       <c r="N18" s="7">
-        <v>6885928</v>
+        <v>6885927</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>94</v>
@@ -1878,7 +1902,7 @@
         <v>6493</v>
       </c>
       <c r="N19" s="7">
-        <v>6969619</v>
+        <v>6969618</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>
@@ -1911,7 +1935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5300B1-E998-40A6-97A9-382EE9B1A0FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38977461-6111-486B-8214-BBB9C6B2F73C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2056,7 +2080,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2086,13 +2110,13 @@
         <v>5813</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H5" s="7">
         <v>14</v>
@@ -2101,13 +2125,13 @@
         <v>16076</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>20</v>
@@ -2119,10 +2143,10 @@
         <v>103</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2161,13 @@
         <v>748534</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H6" s="7">
         <v>878</v>
@@ -2152,13 +2176,13 @@
         <v>978584</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M6" s="7">
         <v>1634</v>
@@ -2167,13 +2191,13 @@
         <v>1727118</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,7 +2301,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2316,13 @@
         <v>8506</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H9" s="7">
         <v>15</v>
@@ -2307,13 +2331,13 @@
         <v>16250</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -2322,13 +2346,13 @@
         <v>24756</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,10 +2367,10 @@
         <v>2067879</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>55</v>
@@ -2358,13 +2382,13 @@
         <v>1972050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
         <v>3838</v>
@@ -2373,13 +2397,13 @@
         <v>4039929</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,7 +2477,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2468,7 +2492,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2483,7 +2507,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2522,13 @@
         <v>930</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2513,13 +2537,13 @@
         <v>1940</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -2528,13 +2552,13 @@
         <v>2870</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2573,13 @@
         <v>545956</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H14" s="7">
         <v>524</v>
@@ -2564,13 +2588,13 @@
         <v>547200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M14" s="7">
         <v>1024</v>
@@ -2579,13 +2603,13 @@
         <v>1093156</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,7 +2713,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,13 +2728,13 @@
         <v>15249</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>31</v>
@@ -2719,13 +2743,13 @@
         <v>34266</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="M17" s="7">
         <v>45</v>
@@ -2734,13 +2758,13 @@
         <v>49515</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,13 +2779,13 @@
         <v>3362369</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>3295</v>
@@ -2770,13 +2794,13 @@
         <v>3497834</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="M18" s="7">
         <v>6496</v>
@@ -2785,13 +2809,13 @@
         <v>6860203</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2866,7 +2890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E69C57EB-3454-4C88-B793-D5EC9413C58D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DBA572-E813-4D15-8488-91F28CDBD108}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2883,7 +2907,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2990,10 +3014,10 @@
         <v>541634</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>36</v>
@@ -3005,10 +3029,10 @@
         <v>835953</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>36</v>
@@ -3020,10 +3044,10 @@
         <v>1377586</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>36</v>
@@ -3047,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3062,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3098,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3113,7 +3137,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3196,10 +3220,10 @@
         <v>2162022</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>36</v>
@@ -3208,13 +3232,13 @@
         <v>2921</v>
       </c>
       <c r="I8" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>36</v>
@@ -3226,10 +3250,10 @@
         <v>4411543</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>36</v>
@@ -3268,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3283,7 +3307,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3334,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3385,7 @@
         <v>2921</v>
       </c>
       <c r="I11" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>36</v>
@@ -3402,10 +3426,10 @@
         <v>673039</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>36</v>
@@ -3417,10 +3441,10 @@
         <v>713886</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>36</v>
@@ -3432,10 +3456,10 @@
         <v>1386926</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>36</v>
@@ -3459,7 +3483,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3474,7 +3498,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -3489,7 +3513,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3534,7 @@
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3525,7 +3549,7 @@
         <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3540,7 +3564,7 @@
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3629,13 @@
         <v>3364</v>
       </c>
       <c r="D16" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>36</v>
@@ -3623,10 +3647,10 @@
         <v>3799360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>36</v>
@@ -3635,13 +3659,13 @@
         <v>8716</v>
       </c>
       <c r="N16" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>36</v>
@@ -3680,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3695,7 +3719,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,7 +3755,7 @@
         <v>12</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -3746,7 +3770,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,7 +3782,7 @@
         <v>3364</v>
       </c>
       <c r="D19" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>36</v>
@@ -3788,7 +3812,7 @@
         <v>8716</v>
       </c>
       <c r="N19" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>36</v>

--- a/data/trans_orig/P1406-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P1406-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBA7B2EB-CE8C-4ECE-9D6E-FE35914F9879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{973931E5-6821-4767-AE9F-4E24EA69595E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC015A11-1504-4254-8B90-E8B65516C7AA}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{33ACFD23-34A3-4B27-8734-FA7EB6B908DC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -871,7 +871,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8DD37D-8815-439F-B5DA-7BC14B6F73AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5346686-DDE9-45B5-8A2D-F048C15B9CE4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1228,7 +1228,7 @@
         <v>3465</v>
       </c>
       <c r="N8" s="7">
-        <v>3691130</v>
+        <v>3691129</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1279,7 +1279,7 @@
         <v>3489</v>
       </c>
       <c r="N9" s="7">
-        <v>3718550</v>
+        <v>3718549</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1383,7 +1383,7 @@
         <v>843</v>
       </c>
       <c r="N11" s="7">
-        <v>932561</v>
+        <v>932562</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1434,7 +1434,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1538,7 +1538,7 @@
         <v>6416</v>
       </c>
       <c r="N14" s="7">
-        <v>6885927</v>
+        <v>6885928</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1589,7 +1589,7 @@
         <v>6493</v>
       </c>
       <c r="N15" s="7">
-        <v>6969618</v>
+        <v>6969619</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1622,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C98897B8-574D-4466-B28E-B01CB5B3B98C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DD8FF64-B761-4575-8E61-062D1FC1A597}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2134,7 +2134,7 @@
         <v>1024</v>
       </c>
       <c r="N11" s="7">
-        <v>1093156</v>
+        <v>1093157</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>95</v>
@@ -2185,7 +2185,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
